--- a/biology/Médecine/Signe_de_Prehn/Signe_de_Prehn.xlsx
+++ b/biology/Médecine/Signe_de_Prehn/Signe_de_Prehn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le signe de Prehn est un signe clinique en médecine qui permet de différencier une épididymite d'une torsion testiculaire lorsqu'un patient se présente pour douleur testiculaire. Il se fait en soulevant d'une main le testicule et si cela soulage la douleur, ça suggère une épididymite[1] sinon c'est plus probablement une torsion testiculaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le signe de Prehn est un signe clinique en médecine qui permet de différencier une épididymite d'une torsion testiculaire lorsqu'un patient se présente pour douleur testiculaire. Il se fait en soulevant d'une main le testicule et si cela soulage la douleur, ça suggère une épididymite sinon c'est plus probablement une torsion testiculaire.
 Il a été décrit par Douglas T. Prehn en 1934.
 Ce test est toutefois peu précis.
 </t>
